--- a/data_migration/exports/newregister.xlsx
+++ b/data_migration/exports/newregister.xlsx
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-09-04 19:24:09.742112-04:00</t>
+          <t>2022-09-04 19:24:09.742112</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-09-04 19:24:09.742112-04:00</t>
+          <t>2022-09-04 19:24:09.742112</t>
         </is>
       </c>
     </row>
